--- a/需求4：Excel文件写入数据处理/resources/ex4_6/照片参数.xlsx
+++ b/需求4：Excel文件写入数据处理/resources/ex4_6/照片参数.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baicizhan1088/Desktop/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/335b2324f39c6022/大学课件/大三下/python自动化办公/需求4^7Excel文件写入数据处理/resources/ex4_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_6FD1CA9213915A76FB07A45FDB8B0B53E49E2D38" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="14980" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="2910" yWindow="2910" windowWidth="15390" windowHeight="9533" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例" sheetId="1" r:id="rId1"/>
@@ -54,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +104,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,24 +374,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.64453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.46875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>6</v>
       </c>
